--- a/control funciones menucompleto.xlsx
+++ b/control funciones menucompleto.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jade_\Desktop\Delivery app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53F9C10-4201-4372-A22D-139553FECF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33993607-198F-415D-87D1-1A7A101A8A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{B50175D1-3EDE-4D77-9654-8E7F3090148C}"/>
   </bookViews>
   <sheets>
     <sheet name="Funciones menucompletocompon" sheetId="1" r:id="rId1"/>
     <sheet name="q hacer" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="29">
   <si>
     <t xml:space="preserve">AGREGAR TARJETA </t>
   </si>
@@ -72,10 +73,58 @@
     <t>BOTON BORRAR REFRESCA LISTA???</t>
   </si>
   <si>
-    <t>Al borrar el ultimo plato de cualquier card pequeña, se ve el modal de la lista vacio, pasa porque esta programado para mostrar la lista, BUSCAR UNA FORMA PARA QUE NO SE MUESTRE EL MODAL O LISTA CUANDO LA LISTA ESTA VACIA</t>
-  </si>
-  <si>
     <t>INPUTS BOTON AGREGAR SE BORRAN?</t>
+  </si>
+  <si>
+    <t>POSTRES</t>
+  </si>
+  <si>
+    <t>fas fa-ice-cream</t>
+  </si>
+  <si>
+    <t>POLLOS</t>
+  </si>
+  <si>
+    <t>fas fa-drumstick-bite</t>
+  </si>
+  <si>
+    <t>GUARNICIONES</t>
+  </si>
+  <si>
+    <t>fas fa-carrot</t>
+  </si>
+  <si>
+    <t>PIZZAS</t>
+  </si>
+  <si>
+    <t>fas fa-pizza-slice</t>
+  </si>
+  <si>
+    <t>CARNES</t>
+  </si>
+  <si>
+    <t>fas fa-utensils</t>
+  </si>
+  <si>
+    <t>PRUEBA</t>
+  </si>
+  <si>
+    <t>fff</t>
+  </si>
+  <si>
+    <t>BEBIDAS</t>
+  </si>
+  <si>
+    <t>fas fa-glass-cheers</t>
+  </si>
+  <si>
+    <t>ver que cuando se elimina el ultimo plato de las tarjetas peqieñas no se refrescan las tarjetas hasta que se refresca la pgina</t>
+  </si>
+  <si>
+    <t>ver en la api que no acepten las tablas valores nulos desde el front</t>
+  </si>
+  <si>
+    <t>agregar modal con explicacion de uso del componente</t>
   </si>
 </sst>
 </file>
@@ -251,6 +300,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -260,52 +324,37 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,44 +681,44 @@
     <col min="3" max="3" width="4.265625" customWidth="1"/>
     <col min="4" max="5" width="11.46484375" customWidth="1"/>
     <col min="6" max="6" width="4.265625" customWidth="1"/>
-    <col min="9" max="9" width="1.73046875" style="8" customWidth="1"/>
-    <col min="18" max="18" width="1.73046875" style="8" customWidth="1"/>
-    <col min="27" max="27" width="1.73046875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="1.73046875" style="3" customWidth="1"/>
+    <col min="18" max="18" width="1.73046875" style="3" customWidth="1"/>
+    <col min="27" max="27" width="1.73046875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="26.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
-      <c r="K1" s="3" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="12"/>
+      <c r="K1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="5"/>
-      <c r="T1" s="3" t="s">
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="12"/>
+      <c r="T1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="5"/>
-      <c r="AC1" s="3" t="s">
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="12"/>
+      <c r="AC1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="5"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="12"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B2" s="1"/>
@@ -686,58 +735,58 @@
       <c r="AI2" s="1"/>
     </row>
     <row r="3" spans="1:35" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="J3" s="6" t="s">
+      <c r="H3" s="22"/>
+      <c r="J3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="7"/>
+      <c r="K3" s="22"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="7"/>
+      <c r="N3" s="22"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="7"/>
-      <c r="S3" s="6" t="s">
+      <c r="Q3" s="22"/>
+      <c r="S3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="T3" s="7"/>
+      <c r="T3" s="22"/>
       <c r="U3" s="2"/>
-      <c r="V3" s="6" t="s">
+      <c r="V3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="W3" s="7"/>
+      <c r="W3" s="22"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="6" t="s">
+      <c r="Y3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="Z3" s="7"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="11"/>
+      <c r="Z3" s="22"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="14"/>
       <c r="AD3" s="2"/>
-      <c r="AE3" s="6" t="s">
+      <c r="AE3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="AF3" s="7"/>
+      <c r="AF3" s="22"/>
       <c r="AG3" s="2"/>
-      <c r="AH3" s="10"/>
-      <c r="AI3" s="11"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="14"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B4" s="1"/>
@@ -754,119 +803,119 @@
       <c r="AI4" s="1"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A5" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="18"/>
-      <c r="D5" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="18"/>
-      <c r="G5" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="18"/>
-      <c r="J5" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="18"/>
-      <c r="M5" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="N5" s="18"/>
-      <c r="P5" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="18"/>
-      <c r="S5" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="T5" s="18"/>
-      <c r="V5" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="W5" s="18"/>
-      <c r="Y5" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z5" s="18"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="11"/>
-      <c r="AE5" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF5" s="18"/>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="11"/>
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="D5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="G5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="J5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="M5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="8"/>
+      <c r="P5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="8"/>
+      <c r="S5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="T5" s="8"/>
+      <c r="V5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="W5" s="8"/>
+      <c r="Y5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z5" s="8"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="14"/>
+      <c r="AE5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF5" s="8"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="14"/>
     </row>
     <row r="8" spans="1:35" ht="8.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="8"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="8"/>
-      <c r="AF8" s="8"/>
-      <c r="AG8" s="8"/>
-      <c r="AH8" s="8"/>
-      <c r="AI8" s="8"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
     </row>
     <row r="9" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="10" spans="1:35" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="5"/>
-      <c r="K10" s="3" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12"/>
+      <c r="K10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="5"/>
-      <c r="T10" s="3" t="s">
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="12"/>
+      <c r="T10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="5"/>
-      <c r="AC10" s="3" t="s">
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="12"/>
+      <c r="AC10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AD10" s="4"/>
-      <c r="AE10" s="4"/>
-      <c r="AF10" s="4"/>
-      <c r="AG10" s="4"/>
-      <c r="AH10" s="5"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="12"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.45">
       <c r="C11" s="1"/>
@@ -882,51 +931,51 @@
       <c r="AI11" s="1"/>
     </row>
     <row r="12" spans="1:35" ht="52.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="2"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-      <c r="J12" s="12" t="s">
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
+      <c r="J12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="13"/>
+      <c r="K12" s="16"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="12" t="s">
+      <c r="M12" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="N12" s="13"/>
+      <c r="N12" s="16"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="12" t="s">
+      <c r="P12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="Q12" s="13"/>
-      <c r="S12" s="12" t="s">
+      <c r="Q12" s="16"/>
+      <c r="S12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="T12" s="13"/>
+      <c r="T12" s="16"/>
       <c r="U12" s="2"/>
-      <c r="V12" s="12" t="s">
+      <c r="V12" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="W12" s="13"/>
+      <c r="W12" s="16"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="12" t="s">
+      <c r="Y12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="Z12" s="13"/>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="11"/>
+      <c r="Z12" s="16"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="14"/>
       <c r="AD12" s="2"/>
-      <c r="AE12" s="12" t="s">
+      <c r="AE12" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AF12" s="13"/>
+      <c r="AF12" s="16"/>
       <c r="AG12" s="2"/>
-      <c r="AH12" s="10"/>
-      <c r="AI12" s="11"/>
+      <c r="AH12" s="13"/>
+      <c r="AI12" s="14"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.45">
       <c r="C13" s="1"/>
@@ -942,211 +991,216 @@
       <c r="AI13" s="1"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="B14" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="18"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="11"/>
-      <c r="J14" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="18"/>
-      <c r="M14" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="18"/>
-      <c r="P14" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="18"/>
-      <c r="S14" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="T14" s="18"/>
-      <c r="V14" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="W14" s="18"/>
-      <c r="Y14" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z14" s="18"/>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="11"/>
-      <c r="AE14" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF14" s="18"/>
-      <c r="AH14" s="10"/>
-      <c r="AI14" s="11"/>
+      <c r="B14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="14"/>
+      <c r="J14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="8"/>
+      <c r="M14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="8"/>
+      <c r="P14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="8"/>
+      <c r="S14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="8"/>
+      <c r="V14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="8"/>
+      <c r="Y14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="8"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="14"/>
+      <c r="AE14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF14" s="8"/>
+      <c r="AH14" s="13"/>
+      <c r="AI14" s="14"/>
     </row>
     <row r="17" spans="1:35" ht="8.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
-      <c r="AB17" s="8"/>
-      <c r="AC17" s="8"/>
-      <c r="AD17" s="9"/>
-      <c r="AE17" s="8"/>
-      <c r="AF17" s="8"/>
-      <c r="AG17" s="8"/>
-      <c r="AH17" s="8"/>
-      <c r="AI17" s="8"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
     </row>
     <row r="18" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="19" spans="1:35" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="21"/>
-      <c r="K19" s="3" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
+      <c r="K19" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="5"/>
-      <c r="T19" s="3" t="s">
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="12"/>
+      <c r="T19" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="5"/>
-      <c r="AC19" s="3" t="s">
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="12"/>
+      <c r="AC19" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4"/>
-      <c r="AF19" s="4"/>
-      <c r="AG19" s="4"/>
-      <c r="AH19" s="5"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="11"/>
+      <c r="AG19" s="11"/>
+      <c r="AH19" s="12"/>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.45">
       <c r="E20" s="1"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
       <c r="W20" s="1"/>
-      <c r="X20" s="16"/>
-      <c r="Y20" s="16"/>
       <c r="AF20" s="1"/>
-      <c r="AG20" s="16"/>
-      <c r="AH20" s="16"/>
     </row>
     <row r="21" spans="1:35" ht="48" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D21" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="M21" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="N21" s="13"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="V21" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="W21" s="13"/>
-      <c r="X21" s="23"/>
-      <c r="Y21" s="23"/>
-      <c r="AE21" s="10"/>
-      <c r="AF21" s="11"/>
-      <c r="AG21" s="23"/>
-      <c r="AH21" s="23"/>
+      <c r="D21" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="M21" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N21" s="16"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="V21" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="W21" s="16"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="14"/>
+      <c r="AG21" s="6"/>
+      <c r="AH21" s="6"/>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.45">
       <c r="E22" s="1"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
       <c r="W22" s="1"/>
-      <c r="X22" s="16"/>
-      <c r="Y22" s="16"/>
       <c r="AF22" s="1"/>
-      <c r="AG22" s="16"/>
-      <c r="AH22" s="16"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="D23" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="M23" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="N23" s="18"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="V23" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="W23" s="18"/>
-      <c r="X23" s="22"/>
-      <c r="Y23" s="22"/>
-      <c r="AE23" s="10"/>
-      <c r="AF23" s="11"/>
-      <c r="AG23" s="22"/>
-      <c r="AH23" s="22"/>
+      <c r="D23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="M23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N23" s="8"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="V23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="W23" s="8"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="AE23" s="13"/>
+      <c r="AF23" s="14"/>
+      <c r="AG23" s="9"/>
+      <c r="AH23" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="AC19:AH19"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="K19:P19"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="T19:Y19"/>
-    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="T1:Y1"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AC1:AH1"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="P14:Q14"/>
     <mergeCell ref="T10:Y10"/>
     <mergeCell ref="S12:T12"/>
     <mergeCell ref="V12:W12"/>
@@ -1155,49 +1209,28 @@
     <mergeCell ref="AB12:AC12"/>
     <mergeCell ref="AE12:AF12"/>
     <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="T19:Y19"/>
+    <mergeCell ref="V21:W21"/>
     <mergeCell ref="S14:T14"/>
     <mergeCell ref="V14:W14"/>
     <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="K10:P10"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="AC1:AH1"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="T1:Y1"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="K1:P1"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="K19:P19"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="AC19:AH19"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AG23:AH23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1206,20 +1239,131 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB88519-6E38-4716-808F-E8354FD906F4}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="19">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="5">
         <v>45133</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G11" s="23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B69C7B3-E8BA-4B68-BD27-6FCF9A94D355}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="6">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A2" s="6">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="6">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="6">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="6">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="6">
+        <v>58</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="6">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/control funciones menucompleto.xlsx
+++ b/control funciones menucompleto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jade_\Desktop\Delivery app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33993607-198F-415D-87D1-1A7A101A8A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE7ABE9-5743-4D53-9E3E-A5C873438D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{B50175D1-3EDE-4D77-9654-8E7F3090148C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{B50175D1-3EDE-4D77-9654-8E7F3090148C}"/>
   </bookViews>
   <sheets>
     <sheet name="Funciones menucompletocompon" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="61">
   <si>
     <t xml:space="preserve">AGREGAR TARJETA </t>
   </si>
@@ -76,48 +76,6 @@
     <t>INPUTS BOTON AGREGAR SE BORRAN?</t>
   </si>
   <si>
-    <t>POSTRES</t>
-  </si>
-  <si>
-    <t>fas fa-ice-cream</t>
-  </si>
-  <si>
-    <t>POLLOS</t>
-  </si>
-  <si>
-    <t>fas fa-drumstick-bite</t>
-  </si>
-  <si>
-    <t>GUARNICIONES</t>
-  </si>
-  <si>
-    <t>fas fa-carrot</t>
-  </si>
-  <si>
-    <t>PIZZAS</t>
-  </si>
-  <si>
-    <t>fas fa-pizza-slice</t>
-  </si>
-  <si>
-    <t>CARNES</t>
-  </si>
-  <si>
-    <t>fas fa-utensils</t>
-  </si>
-  <si>
-    <t>PRUEBA</t>
-  </si>
-  <si>
-    <t>fff</t>
-  </si>
-  <si>
-    <t>BEBIDAS</t>
-  </si>
-  <si>
-    <t>fas fa-glass-cheers</t>
-  </si>
-  <si>
     <t>ver que cuando se elimina el ultimo plato de las tarjetas peqieñas no se refrescan las tarjetas hasta que se refresca la pgina</t>
   </si>
   <si>
@@ -125,13 +83,151 @@
   </si>
   <si>
     <t>agregar modal con explicacion de uso del componente</t>
+  </si>
+  <si>
+    <t>agregar boton que muestre lista coppleta</t>
+  </si>
+  <si>
+    <t>agregar boton descarga lista completa platos en excel</t>
+  </si>
+  <si>
+    <t>agregar fondo y bordes</t>
+  </si>
+  <si>
+    <t>donde se ageguen iconos o colores, poner lista representativa arriba de ese modal</t>
+  </si>
+  <si>
+    <t>ver que los textos se justifiquen</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1624552184280-9e9631bbeee9?ixlib=rb-4.0.3&amp;ixid=M3wxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8fA%3D%3D&amp;auto=format&amp;fit=crop&amp;w=687&amp;q=80</t>
+  </si>
+  <si>
+    <t>COCA-COLA</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1550505095-81378a674395?ixlib=rb-4.0.3&amp;ixid=M3wxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8fA%3D%3D&amp;auto=format&amp;fit=crop&amp;w=1470&amp;q=80</t>
+  </si>
+  <si>
+    <t>AGUA</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1529692236671-f1f6cf9683ba?ixlib=rb-4.0.3&amp;ixid=M3wxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8fA%3D%3D&amp;auto=format&amp;fit=crop&amp;w=1470&amp;q=80</t>
+  </si>
+  <si>
+    <t>ASADO AL HORNO</t>
+  </si>
+  <si>
+    <t>https://thumbs.dreamstime.com/z/schnitzel-28139717.jpg?w=576</t>
+  </si>
+  <si>
+    <t>MILANESAS</t>
+  </si>
+  <si>
+    <t>https://thumbs.dreamstime.com/z/chuleta-milanesa-de-la-carne-vaca-empanada-con-el-lim%C3%B3n-y-cierre-u-las-patatas-fritas-113148293.jpg?w=992</t>
+  </si>
+  <si>
+    <t>SUPREMA</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1615557960916-5f4791effe9d?ixlib=rb-4.0.3&amp;ixid=M3wxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8fA%3D%3D&amp;auto=format&amp;fit=crop&amp;w=1374&amp;q=80</t>
+  </si>
+  <si>
+    <t>POLLO AL HORNO</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1540420773420-3366772f4999?ixlib=rb-4.0.3&amp;ixid=M3wxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8fA%3D%3D&amp;auto=format&amp;fit=crop&amp;w=684&amp;q=80</t>
+  </si>
+  <si>
+    <t>ENSALADA</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1598679253544-2c97992403ea?ixlib=rb-4.0.3&amp;ixid=M3wxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8fA%3D%3D&amp;auto=format&amp;fit=crop&amp;w=687&amp;q=80</t>
+  </si>
+  <si>
+    <t>PAPAS FRITAS</t>
+  </si>
+  <si>
+    <t>https://plus.unsplash.com/premium_photo-1661427159078-9d85039e99b8?ixlib=rb-4.0.3&amp;ixid=M3wxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8fA%3D%3D&amp;auto=format&amp;fit=crop&amp;w=1632&amp;q=80</t>
+  </si>
+  <si>
+    <t>HELADO</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1593416981196-995e60a44d4a?ixlib=rb-4.0.3&amp;ixid=M3wxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8fA%3D%3D&amp;auto=format&amp;fit=crop&amp;w=686&amp;q=80</t>
+  </si>
+  <si>
+    <t>FLAN</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1571066811602-716837d681de?ixlib=rb-4.0.3&amp;ixid=M3wxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8fA%3D%3D&amp;auto=format&amp;fit=crop&amp;w=536&amp;q=80</t>
+  </si>
+  <si>
+    <t>PIZZA CON HUEVO</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1589187151053-5ec8818e661b?ixlib=rb-4.0.3&amp;ixid=M3wxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8fA%3D%3D&amp;auto=format&amp;fit=crop&amp;w=687&amp;q=80</t>
+  </si>
+  <si>
+    <t>PIZZA RUCULA</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1628809643597-654efb99b214?ixlib=rb-4.0.3&amp;ixid=M3wxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8fA%3D%3D&amp;auto=format&amp;fit=crop&amp;w=685&amp;q=80</t>
+  </si>
+  <si>
+    <t>BUDIN DE PAN</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1504649346668-2cc86afaa2e1?ixlib=rb-4.0.3&amp;ixid=M3wxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8fA%3D%3D&amp;auto=format&amp;fit=crop&amp;w=1364&amp;q=80</t>
+  </si>
+  <si>
+    <t>PAMPLONA</t>
+  </si>
+  <si>
+    <t>https://plus.unsplash.com/premium_photo-1676313449501-8ed94e22a65b?ixlib=rb-4.0.3&amp;ixid=M3wxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8fA%3D%3D&amp;auto=format&amp;fit=crop&amp;w=687&amp;q=80</t>
+  </si>
+  <si>
+    <t>ENSALDA RUSA</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1574071318508-1cdbab80d002?ixlib=rb-4.0.3&amp;ixid=M3wxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8fA%3D%3D&amp;auto=format&amp;fit=crop&amp;w=1469&amp;q=80</t>
+  </si>
+  <si>
+    <t>PIZZA CANCHA</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1624772398061-bbfa87ec6b5a?ixlib=rb-4.0.3&amp;ixid=M3wxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8fA%3D%3D&amp;auto=format&amp;fit=crop&amp;w=687&amp;q=80</t>
+  </si>
+  <si>
+    <t>CHORIZO</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1566633806327-68e152aaf26d?ixlib=rb-4.0.3&amp;ixid=M3wxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8fA%3D%3D&amp;auto=format&amp;fit=crop&amp;w=1470&amp;q=80</t>
+  </si>
+  <si>
+    <t>CERVEZA</t>
+  </si>
+  <si>
+    <t>ver  cambiar nombre columna TipoPlato en excel por id_TipoPlato</t>
+  </si>
+  <si>
+    <t>ocultar input con id de lo que sea</t>
+  </si>
+  <si>
+    <t>que no se puedan repetir los tipos de platos en la db</t>
+  </si>
+  <si>
+    <t>HACER MODALES MAS GRANDES</t>
+  </si>
+  <si>
+    <t>poner cabeceras a las listas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +255,19 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -294,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -306,15 +415,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -322,6 +425,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -336,25 +451,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -671,7 +782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA668CC3-189C-49D9-8DCE-DD0C686ACD39}">
   <dimension ref="A1:AI23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V23" sqref="V23:W23"/>
     </sheetView>
   </sheetViews>
@@ -735,58 +846,58 @@
       <c r="AI2" s="1"/>
     </row>
     <row r="3" spans="1:35" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="22"/>
+      <c r="E3" s="14"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="J3" s="21" t="s">
+      <c r="H3" s="14"/>
+      <c r="J3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="22"/>
+      <c r="K3" s="14"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="21" t="s">
+      <c r="M3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="22"/>
+      <c r="N3" s="14"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="21" t="s">
+      <c r="P3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="22"/>
-      <c r="S3" s="21" t="s">
+      <c r="Q3" s="14"/>
+      <c r="S3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="T3" s="22"/>
+      <c r="T3" s="14"/>
       <c r="U3" s="2"/>
-      <c r="V3" s="21" t="s">
+      <c r="V3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="W3" s="22"/>
+      <c r="W3" s="14"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="21" t="s">
+      <c r="Y3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Z3" s="22"/>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="18"/>
       <c r="AD3" s="2"/>
-      <c r="AE3" s="21" t="s">
+      <c r="AE3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="AF3" s="22"/>
+      <c r="AF3" s="14"/>
       <c r="AG3" s="2"/>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="14"/>
+      <c r="AH3" s="17"/>
+      <c r="AI3" s="18"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B4" s="1"/>
@@ -803,50 +914,50 @@
       <c r="AI4" s="1"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="D5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="G5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="J5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="8"/>
-      <c r="M5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="N5" s="8"/>
-      <c r="P5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="8"/>
-      <c r="S5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="T5" s="8"/>
-      <c r="V5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="W5" s="8"/>
-      <c r="Y5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z5" s="8"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="14"/>
-      <c r="AE5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF5" s="8"/>
-      <c r="AH5" s="13"/>
-      <c r="AI5" s="14"/>
+      <c r="A5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="D5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="G5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="J5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="16"/>
+      <c r="M5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="16"/>
+      <c r="P5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="16"/>
+      <c r="S5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="T5" s="16"/>
+      <c r="V5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="W5" s="16"/>
+      <c r="Y5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z5" s="16"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="18"/>
+      <c r="AE5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF5" s="16"/>
+      <c r="AH5" s="17"/>
+      <c r="AI5" s="18"/>
     </row>
     <row r="8" spans="1:35" ht="8.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
@@ -931,51 +1042,51 @@
       <c r="AI11" s="1"/>
     </row>
     <row r="12" spans="1:35" ht="52.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="16"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="2"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
-      <c r="J12" s="15" t="s">
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
+      <c r="J12" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="16"/>
+      <c r="K12" s="20"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="15" t="s">
+      <c r="M12" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="N12" s="16"/>
+      <c r="N12" s="20"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="15" t="s">
+      <c r="P12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="Q12" s="16"/>
-      <c r="S12" s="15" t="s">
+      <c r="Q12" s="20"/>
+      <c r="S12" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="T12" s="16"/>
+      <c r="T12" s="20"/>
       <c r="U12" s="2"/>
-      <c r="V12" s="15" t="s">
+      <c r="V12" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="W12" s="16"/>
+      <c r="W12" s="20"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="15" t="s">
+      <c r="Y12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="Z12" s="16"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="14"/>
+      <c r="Z12" s="20"/>
+      <c r="AB12" s="17"/>
+      <c r="AC12" s="18"/>
       <c r="AD12" s="2"/>
-      <c r="AE12" s="15" t="s">
+      <c r="AE12" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="AF12" s="16"/>
+      <c r="AF12" s="20"/>
       <c r="AG12" s="2"/>
-      <c r="AH12" s="13"/>
-      <c r="AI12" s="14"/>
+      <c r="AH12" s="17"/>
+      <c r="AI12" s="18"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.45">
       <c r="C13" s="1"/>
@@ -991,44 +1102,44 @@
       <c r="AI13" s="1"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="B14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="14"/>
-      <c r="J14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="8"/>
-      <c r="M14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="8"/>
-      <c r="P14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="8"/>
-      <c r="S14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="T14" s="8"/>
-      <c r="V14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="W14" s="8"/>
-      <c r="Y14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z14" s="8"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="14"/>
-      <c r="AE14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF14" s="8"/>
-      <c r="AH14" s="13"/>
-      <c r="AI14" s="14"/>
+      <c r="B14" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="18"/>
+      <c r="J14" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="16"/>
+      <c r="M14" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="16"/>
+      <c r="P14" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="16"/>
+      <c r="S14" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="16"/>
+      <c r="V14" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="16"/>
+      <c r="Y14" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="16"/>
+      <c r="AB14" s="17"/>
+      <c r="AC14" s="18"/>
+      <c r="AE14" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF14" s="16"/>
+      <c r="AH14" s="17"/>
+      <c r="AI14" s="18"/>
     </row>
     <row r="17" spans="1:35" ht="8.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
@@ -1072,8 +1183,8 @@
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="24"/>
       <c r="K19" s="10" t="s">
         <v>5</v>
       </c>
@@ -1106,26 +1217,26 @@
       <c r="AF20" s="1"/>
     </row>
     <row r="21" spans="1:35" ht="48" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="16"/>
+      <c r="E21" s="20"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="M21" s="15" t="s">
+      <c r="M21" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="N21" s="16"/>
+      <c r="N21" s="20"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
-      <c r="V21" s="15" t="s">
+      <c r="V21" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="W21" s="16"/>
+      <c r="W21" s="20"/>
       <c r="X21" s="6"/>
       <c r="Y21" s="6"/>
-      <c r="AE21" s="13"/>
-      <c r="AF21" s="14"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="18"/>
       <c r="AG21" s="6"/>
       <c r="AH21" s="6"/>
     </row>
@@ -1136,79 +1247,43 @@
       <c r="AF22" s="1"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="D23" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="M23" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="N23" s="8"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="V23" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="W23" s="8"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="AE23" s="13"/>
-      <c r="AF23" s="14"/>
-      <c r="AG23" s="9"/>
-      <c r="AH23" s="9"/>
+      <c r="D23" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="16"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="M23" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="N23" s="16"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="V23" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="W23" s="16"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="AE23" s="17"/>
+      <c r="AF23" s="18"/>
+      <c r="AG23" s="25"/>
+      <c r="AH23" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K1:P1"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="T1:Y1"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AC1:AH1"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="K10:P10"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="T10:Y10"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="AC10:AH10"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="AC19:AH19"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="K19:P19"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
     <mergeCell ref="AB14:AC14"/>
     <mergeCell ref="AE14:AF14"/>
     <mergeCell ref="AH14:AI14"/>
@@ -1219,18 +1294,54 @@
     <mergeCell ref="S14:T14"/>
     <mergeCell ref="V14:W14"/>
     <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="K19:P19"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="AC19:AH19"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="T10:Y10"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="AC10:AH10"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="AC1:AH1"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="T1:Y1"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1239,34 +1350,90 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB88519-6E38-4716-808F-E8354FD906F4}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="5">
         <v>45133</v>
       </c>
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G11" s="23"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B5" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B6" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B8" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B9" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B10" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B13" s="8" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1276,10 +1443,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B69C7B3-E8BA-4B68-BD27-6FCF9A94D355}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:F14"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1289,81 +1456,310 @@
     <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="285" x14ac:dyDescent="0.45">
       <c r="A1" s="6">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="6">
+        <v>270</v>
+      </c>
+      <c r="E1" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="299.25" x14ac:dyDescent="0.45">
+      <c r="A2" s="6">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="6">
+        <v>100</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="285" x14ac:dyDescent="0.45">
+      <c r="A3" s="6">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="6">
+        <v>500</v>
+      </c>
+      <c r="E3" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="6">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="6">
+        <v>300</v>
+      </c>
+      <c r="E4" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="228" x14ac:dyDescent="0.45">
+      <c r="A5" s="6">
         <v>5</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="6">
+        <v>200</v>
+      </c>
+      <c r="E5" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="285" x14ac:dyDescent="0.45">
+      <c r="A6" s="6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="6">
+        <v>250</v>
+      </c>
+      <c r="E6" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="285" x14ac:dyDescent="0.45">
+      <c r="A7" s="6">
+        <v>7</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="6">
+        <v>150</v>
+      </c>
+      <c r="E7" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="285" x14ac:dyDescent="0.45">
+      <c r="A8" s="6">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="6">
+        <v>100</v>
+      </c>
+      <c r="E8" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="299.25" x14ac:dyDescent="0.45">
+      <c r="A9" s="6">
+        <v>9</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="6">
+        <v>100</v>
+      </c>
+      <c r="E9" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="285" x14ac:dyDescent="0.45">
+      <c r="A10" s="6">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="6">
+        <v>120</v>
+      </c>
+      <c r="E10" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="285" x14ac:dyDescent="0.45">
+      <c r="A11" s="6">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="6">
+        <v>450</v>
+      </c>
+      <c r="E11" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="285" x14ac:dyDescent="0.45">
+      <c r="A12" s="6">
         <v>12</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="B12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="6">
+        <v>370</v>
+      </c>
+      <c r="E12" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="285" x14ac:dyDescent="0.45">
+      <c r="A13" s="6">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A2" s="6">
+      <c r="B13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="6">
+        <v>344</v>
+      </c>
+      <c r="E13" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="285" x14ac:dyDescent="0.45">
+      <c r="A14" s="6">
+        <v>14</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="6">
+        <v>44</v>
+      </c>
+      <c r="E14" s="6">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="6" t="s">
+    </row>
+    <row r="15" spans="1:5" ht="285" x14ac:dyDescent="0.45">
+      <c r="A15" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="6">
-        <v>4</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="B15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="6">
+        <v>777</v>
+      </c>
+      <c r="E15" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="299.25" x14ac:dyDescent="0.45">
+      <c r="A16" s="6">
         <v>16</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="B16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="6">
+        <v>120</v>
+      </c>
+      <c r="E16" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="285" x14ac:dyDescent="0.45">
+      <c r="A17" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="6">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="B17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="6">
+        <v>500</v>
+      </c>
+      <c r="E17" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="299.25" x14ac:dyDescent="0.45">
+      <c r="A18" s="6">
         <v>18</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="6">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="6">
-        <v>58</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="6">
+      <c r="B18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="6">
+        <v>80</v>
+      </c>
+      <c r="E18" s="6">
         <v>1</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/control funciones menucompleto.xlsx
+++ b/control funciones menucompleto.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jade_\Desktop\Delivery app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE7ABE9-5743-4D53-9E3E-A5C873438D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD6C97C-D1EA-4DEA-BA32-7E30DA06DB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{B50175D1-3EDE-4D77-9654-8E7F3090148C}"/>
   </bookViews>
   <sheets>
     <sheet name="Funciones menucompletocompon" sheetId="1" r:id="rId1"/>
     <sheet name="q hacer" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
+    <sheet name="para consolelog" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
   <si>
     <t xml:space="preserve">AGREGAR TARJETA </t>
   </si>
@@ -100,114 +100,6 @@
     <t>ver que los textos se justifiquen</t>
   </si>
   <si>
-    <t>https://images.unsplash.com/photo-1624552184280-9e9631bbeee9?ixlib=rb-4.0.3&amp;ixid=M3wxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8fA%3D%3D&amp;auto=format&amp;fit=crop&amp;w=687&amp;q=80</t>
-  </si>
-  <si>
-    <t>COCA-COLA</t>
-  </si>
-  <si>
-    <t>https://images.unsplash.com/photo-1550505095-81378a674395?ixlib=rb-4.0.3&amp;ixid=M3wxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8fA%3D%3D&amp;auto=format&amp;fit=crop&amp;w=1470&amp;q=80</t>
-  </si>
-  <si>
-    <t>AGUA</t>
-  </si>
-  <si>
-    <t>https://images.unsplash.com/photo-1529692236671-f1f6cf9683ba?ixlib=rb-4.0.3&amp;ixid=M3wxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8fA%3D%3D&amp;auto=format&amp;fit=crop&amp;w=1470&amp;q=80</t>
-  </si>
-  <si>
-    <t>ASADO AL HORNO</t>
-  </si>
-  <si>
-    <t>https://thumbs.dreamstime.com/z/schnitzel-28139717.jpg?w=576</t>
-  </si>
-  <si>
-    <t>MILANESAS</t>
-  </si>
-  <si>
-    <t>https://thumbs.dreamstime.com/z/chuleta-milanesa-de-la-carne-vaca-empanada-con-el-lim%C3%B3n-y-cierre-u-las-patatas-fritas-113148293.jpg?w=992</t>
-  </si>
-  <si>
-    <t>SUPREMA</t>
-  </si>
-  <si>
-    <t>https://images.unsplash.com/photo-1615557960916-5f4791effe9d?ixlib=rb-4.0.3&amp;ixid=M3wxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8fA%3D%3D&amp;auto=format&amp;fit=crop&amp;w=1374&amp;q=80</t>
-  </si>
-  <si>
-    <t>POLLO AL HORNO</t>
-  </si>
-  <si>
-    <t>https://images.unsplash.com/photo-1540420773420-3366772f4999?ixlib=rb-4.0.3&amp;ixid=M3wxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8fA%3D%3D&amp;auto=format&amp;fit=crop&amp;w=684&amp;q=80</t>
-  </si>
-  <si>
-    <t>ENSALADA</t>
-  </si>
-  <si>
-    <t>https://images.unsplash.com/photo-1598679253544-2c97992403ea?ixlib=rb-4.0.3&amp;ixid=M3wxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8fA%3D%3D&amp;auto=format&amp;fit=crop&amp;w=687&amp;q=80</t>
-  </si>
-  <si>
-    <t>PAPAS FRITAS</t>
-  </si>
-  <si>
-    <t>https://plus.unsplash.com/premium_photo-1661427159078-9d85039e99b8?ixlib=rb-4.0.3&amp;ixid=M3wxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8fA%3D%3D&amp;auto=format&amp;fit=crop&amp;w=1632&amp;q=80</t>
-  </si>
-  <si>
-    <t>HELADO</t>
-  </si>
-  <si>
-    <t>https://images.unsplash.com/photo-1593416981196-995e60a44d4a?ixlib=rb-4.0.3&amp;ixid=M3wxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8fA%3D%3D&amp;auto=format&amp;fit=crop&amp;w=686&amp;q=80</t>
-  </si>
-  <si>
-    <t>FLAN</t>
-  </si>
-  <si>
-    <t>https://images.unsplash.com/photo-1571066811602-716837d681de?ixlib=rb-4.0.3&amp;ixid=M3wxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8fA%3D%3D&amp;auto=format&amp;fit=crop&amp;w=536&amp;q=80</t>
-  </si>
-  <si>
-    <t>PIZZA CON HUEVO</t>
-  </si>
-  <si>
-    <t>https://images.unsplash.com/photo-1589187151053-5ec8818e661b?ixlib=rb-4.0.3&amp;ixid=M3wxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8fA%3D%3D&amp;auto=format&amp;fit=crop&amp;w=687&amp;q=80</t>
-  </si>
-  <si>
-    <t>PIZZA RUCULA</t>
-  </si>
-  <si>
-    <t>https://images.unsplash.com/photo-1628809643597-654efb99b214?ixlib=rb-4.0.3&amp;ixid=M3wxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8fA%3D%3D&amp;auto=format&amp;fit=crop&amp;w=685&amp;q=80</t>
-  </si>
-  <si>
-    <t>BUDIN DE PAN</t>
-  </si>
-  <si>
-    <t>https://images.unsplash.com/photo-1504649346668-2cc86afaa2e1?ixlib=rb-4.0.3&amp;ixid=M3wxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8fA%3D%3D&amp;auto=format&amp;fit=crop&amp;w=1364&amp;q=80</t>
-  </si>
-  <si>
-    <t>PAMPLONA</t>
-  </si>
-  <si>
-    <t>https://plus.unsplash.com/premium_photo-1676313449501-8ed94e22a65b?ixlib=rb-4.0.3&amp;ixid=M3wxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8fA%3D%3D&amp;auto=format&amp;fit=crop&amp;w=687&amp;q=80</t>
-  </si>
-  <si>
-    <t>ENSALDA RUSA</t>
-  </si>
-  <si>
-    <t>https://images.unsplash.com/photo-1574071318508-1cdbab80d002?ixlib=rb-4.0.3&amp;ixid=M3wxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8fA%3D%3D&amp;auto=format&amp;fit=crop&amp;w=1469&amp;q=80</t>
-  </si>
-  <si>
-    <t>PIZZA CANCHA</t>
-  </si>
-  <si>
-    <t>https://images.unsplash.com/photo-1624772398061-bbfa87ec6b5a?ixlib=rb-4.0.3&amp;ixid=M3wxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8fA%3D%3D&amp;auto=format&amp;fit=crop&amp;w=687&amp;q=80</t>
-  </si>
-  <si>
-    <t>CHORIZO</t>
-  </si>
-  <si>
-    <t>https://images.unsplash.com/photo-1566633806327-68e152aaf26d?ixlib=rb-4.0.3&amp;ixid=M3wxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8fA%3D%3D&amp;auto=format&amp;fit=crop&amp;w=1470&amp;q=80</t>
-  </si>
-  <si>
-    <t>CERVEZA</t>
-  </si>
-  <si>
     <t>ver  cambiar nombre columna TipoPlato en excel por id_TipoPlato</t>
   </si>
   <si>
@@ -221,13 +113,75 @@
   </si>
   <si>
     <t>poner cabeceras a las listas</t>
+  </si>
+  <si>
+    <t>Foto de Flo P en Unsplash</t>
+  </si>
+  <si>
+    <t>Platos de fondo menucompleto component</t>
+  </si>
+  <si>
+    <t>Foto de Brooke Lark en Unsplash</t>
+  </si>
+  <si>
+    <t>Citricos pattern</t>
+  </si>
+  <si>
+    <t>Foto de Ave Calvar en Unsplash</t>
+  </si>
+  <si>
+    <t>Frutillas pattern</t>
+  </si>
+  <si>
+    <t>Foto de Edgar Chaparro en Unsplash</t>
+  </si>
+  <si>
+    <t>Donas pattern</t>
+  </si>
+  <si>
+    <r>
+      <t>Foto de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF767676"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lukas Blazek</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF111111"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> en </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <color rgb="FF767676"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Unsplash</t>
+    </r>
+  </si>
+  <si>
+    <t>escritorio pattern</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,6 +226,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="5"/>
+      <color rgb="FF767676"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="5"/>
+      <color rgb="FF111111"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -403,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -418,6 +386,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -427,44 +404,48 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -798,38 +779,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="26.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="12"/>
-      <c r="K1" s="10" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="15"/>
+      <c r="K1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="12"/>
-      <c r="T1" s="10" t="s">
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="15"/>
+      <c r="T1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="12"/>
-      <c r="AC1" s="10" t="s">
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="15"/>
+      <c r="AC1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="11"/>
-      <c r="AH1" s="12"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="15"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B2" s="1"/>
@@ -846,58 +827,58 @@
       <c r="AI2" s="1"/>
     </row>
     <row r="3" spans="1:35" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="14"/>
+      <c r="E3" s="25"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="J3" s="13" t="s">
+      <c r="H3" s="25"/>
+      <c r="J3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="14"/>
+      <c r="K3" s="25"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="14"/>
+      <c r="N3" s="25"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="13" t="s">
+      <c r="P3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="14"/>
-      <c r="S3" s="13" t="s">
+      <c r="Q3" s="25"/>
+      <c r="S3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="T3" s="14"/>
+      <c r="T3" s="25"/>
       <c r="U3" s="2"/>
-      <c r="V3" s="13" t="s">
+      <c r="V3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="W3" s="14"/>
+      <c r="W3" s="25"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="13" t="s">
+      <c r="Y3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="Z3" s="14"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="18"/>
+      <c r="Z3" s="25"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="17"/>
       <c r="AD3" s="2"/>
-      <c r="AE3" s="13" t="s">
+      <c r="AE3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="AF3" s="14"/>
+      <c r="AF3" s="25"/>
       <c r="AG3" s="2"/>
-      <c r="AH3" s="17"/>
-      <c r="AI3" s="18"/>
+      <c r="AH3" s="16"/>
+      <c r="AI3" s="17"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B4" s="1"/>
@@ -914,50 +895,50 @@
       <c r="AI4" s="1"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A5" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="16"/>
-      <c r="D5" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="16"/>
-      <c r="G5" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="16"/>
-      <c r="J5" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="16"/>
-      <c r="M5" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="N5" s="16"/>
-      <c r="P5" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="16"/>
-      <c r="S5" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="T5" s="16"/>
-      <c r="V5" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="W5" s="16"/>
-      <c r="Y5" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z5" s="16"/>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="18"/>
-      <c r="AE5" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF5" s="16"/>
-      <c r="AH5" s="17"/>
-      <c r="AI5" s="18"/>
+      <c r="A5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="D5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="G5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="J5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="M5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="11"/>
+      <c r="P5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="11"/>
+      <c r="S5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="T5" s="11"/>
+      <c r="V5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="W5" s="11"/>
+      <c r="Y5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z5" s="11"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="17"/>
+      <c r="AE5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF5" s="11"/>
+      <c r="AH5" s="16"/>
+      <c r="AI5" s="17"/>
     </row>
     <row r="8" spans="1:35" ht="8.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
@@ -995,38 +976,38 @@
     </row>
     <row r="9" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="10" spans="1:35" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
-      <c r="K10" s="10" t="s">
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
+      <c r="K10" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="12"/>
-      <c r="T10" s="10" t="s">
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="15"/>
+      <c r="T10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="12"/>
-      <c r="AC10" s="10" t="s">
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="15"/>
+      <c r="AC10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="11"/>
-      <c r="AG10" s="11"/>
-      <c r="AH10" s="12"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="15"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.45">
       <c r="C11" s="1"/>
@@ -1042,51 +1023,51 @@
       <c r="AI11" s="1"/>
     </row>
     <row r="12" spans="1:35" ht="52.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="20"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="2"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="22"/>
-      <c r="J12" s="19" t="s">
+      <c r="F12" s="22"/>
+      <c r="G12" s="23"/>
+      <c r="J12" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="20"/>
+      <c r="K12" s="19"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="19" t="s">
+      <c r="M12" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="N12" s="20"/>
+      <c r="N12" s="19"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="19" t="s">
+      <c r="P12" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="Q12" s="20"/>
-      <c r="S12" s="19" t="s">
+      <c r="Q12" s="19"/>
+      <c r="S12" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="T12" s="20"/>
+      <c r="T12" s="19"/>
       <c r="U12" s="2"/>
-      <c r="V12" s="19" t="s">
+      <c r="V12" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="W12" s="20"/>
+      <c r="W12" s="19"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="19" t="s">
+      <c r="Y12" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="Z12" s="20"/>
-      <c r="AB12" s="17"/>
-      <c r="AC12" s="18"/>
+      <c r="Z12" s="19"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="17"/>
       <c r="AD12" s="2"/>
-      <c r="AE12" s="19" t="s">
+      <c r="AE12" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="AF12" s="20"/>
+      <c r="AF12" s="19"/>
       <c r="AG12" s="2"/>
-      <c r="AH12" s="17"/>
-      <c r="AI12" s="18"/>
+      <c r="AH12" s="16"/>
+      <c r="AI12" s="17"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.45">
       <c r="C13" s="1"/>
@@ -1102,44 +1083,44 @@
       <c r="AI13" s="1"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="B14" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
-      <c r="J14" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="16"/>
-      <c r="M14" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="16"/>
-      <c r="P14" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="16"/>
-      <c r="S14" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="T14" s="16"/>
-      <c r="V14" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="W14" s="16"/>
-      <c r="Y14" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z14" s="16"/>
-      <c r="AB14" s="17"/>
-      <c r="AC14" s="18"/>
-      <c r="AE14" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF14" s="16"/>
-      <c r="AH14" s="17"/>
-      <c r="AI14" s="18"/>
+      <c r="B14" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17"/>
+      <c r="J14" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="11"/>
+      <c r="M14" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="11"/>
+      <c r="P14" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="11"/>
+      <c r="S14" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="11"/>
+      <c r="V14" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="11"/>
+      <c r="Y14" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="11"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="17"/>
+      <c r="AE14" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF14" s="11"/>
+      <c r="AH14" s="16"/>
+      <c r="AI14" s="17"/>
     </row>
     <row r="17" spans="1:35" ht="8.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
@@ -1177,38 +1158,38 @@
     </row>
     <row r="18" spans="1:35" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="19" spans="1:35" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="24"/>
-      <c r="K19" s="10" t="s">
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="21"/>
+      <c r="K19" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="12"/>
-      <c r="T19" s="10" t="s">
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="15"/>
+      <c r="T19" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="12"/>
-      <c r="AC19" s="10" t="s">
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="15"/>
+      <c r="AC19" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AD19" s="11"/>
-      <c r="AE19" s="11"/>
-      <c r="AF19" s="11"/>
-      <c r="AG19" s="11"/>
-      <c r="AH19" s="12"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="14"/>
+      <c r="AG19" s="14"/>
+      <c r="AH19" s="15"/>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.45">
       <c r="E20" s="1"/>
@@ -1217,26 +1198,26 @@
       <c r="AF20" s="1"/>
     </row>
     <row r="21" spans="1:35" ht="48" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="20"/>
+      <c r="E21" s="19"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="M21" s="19" t="s">
+      <c r="M21" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="N21" s="20"/>
+      <c r="N21" s="19"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
-      <c r="V21" s="19" t="s">
+      <c r="V21" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="W21" s="20"/>
+      <c r="W21" s="19"/>
       <c r="X21" s="6"/>
       <c r="Y21" s="6"/>
-      <c r="AE21" s="17"/>
-      <c r="AF21" s="18"/>
+      <c r="AE21" s="16"/>
+      <c r="AF21" s="17"/>
       <c r="AG21" s="6"/>
       <c r="AH21" s="6"/>
     </row>
@@ -1247,43 +1228,79 @@
       <c r="AF22" s="1"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="D23" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="M23" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="N23" s="16"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="V23" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="W23" s="16"/>
-      <c r="X23" s="25"/>
-      <c r="Y23" s="25"/>
-      <c r="AE23" s="17"/>
-      <c r="AF23" s="18"/>
-      <c r="AG23" s="25"/>
-      <c r="AH23" s="25"/>
+      <c r="D23" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="M23" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N23" s="11"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="V23" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="W23" s="11"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="AE23" s="16"/>
+      <c r="AF23" s="17"/>
+      <c r="AG23" s="12"/>
+      <c r="AH23" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="AC19:AH19"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="K19:P19"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="T1:Y1"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AC1:AH1"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="T10:Y10"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="AC10:AH10"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AH12:AI12"/>
     <mergeCell ref="AB14:AC14"/>
     <mergeCell ref="AE14:AF14"/>
     <mergeCell ref="AH14:AI14"/>
@@ -1294,54 +1311,18 @@
     <mergeCell ref="S14:T14"/>
     <mergeCell ref="V14:W14"/>
     <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="T10:Y10"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="AC10:AH10"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AH12:AI12"/>
-    <mergeCell ref="K10:P10"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="AC1:AH1"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="T1:Y1"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="K1:P1"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="K19:P19"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="AC19:AH19"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AG23:AH23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1353,7 +1334,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1380,7 +1361,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
+      <c r="B3" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1396,11 +1377,11 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B6" s="8" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
+      <c r="B7" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1415,24 +1396,24 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B10" s="9" t="s">
-        <v>57</v>
+      <c r="B10" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B12" s="8" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B13" s="8" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1446,323 +1427,164 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.1328125" customWidth="1"/>
+    <col min="3" max="3" width="39.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="285" x14ac:dyDescent="0.45">
-      <c r="A1" s="6">
-        <v>1</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="6">
-        <v>270</v>
-      </c>
-      <c r="E1" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="299.25" x14ac:dyDescent="0.45">
-      <c r="A2" s="6">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>22</v>
+    <row r="1" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="26"/>
+      <c r="B1" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="6"/>
+      <c r="B2" t="s">
+        <v>27</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="6">
-        <v>100</v>
-      </c>
-      <c r="E2" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="285" x14ac:dyDescent="0.45">
-      <c r="A3" s="6">
-        <v>3</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="6">
-        <v>500</v>
-      </c>
-      <c r="E3" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="6">
-        <v>4</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="6">
-        <v>300</v>
-      </c>
-      <c r="E4" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="228" x14ac:dyDescent="0.45">
-      <c r="A5" s="6">
-        <v>5</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="6">
-        <v>200</v>
-      </c>
-      <c r="E5" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="285" x14ac:dyDescent="0.45">
-      <c r="A6" s="6">
-        <v>6</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="6">
-        <v>250</v>
-      </c>
-      <c r="E6" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="285" x14ac:dyDescent="0.45">
-      <c r="A7" s="6">
-        <v>7</v>
-      </c>
-      <c r="B7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="6"/>
+      <c r="B5" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="6">
-        <v>150</v>
-      </c>
-      <c r="E7" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="285" x14ac:dyDescent="0.45">
-      <c r="A8" s="6">
-        <v>8</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="C5" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="6">
-        <v>100</v>
-      </c>
-      <c r="E8" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="299.25" x14ac:dyDescent="0.45">
-      <c r="A9" s="6">
-        <v>9</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="6">
-        <v>100</v>
-      </c>
-      <c r="E9" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="285" x14ac:dyDescent="0.45">
-      <c r="A10" s="6">
-        <v>10</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="6">
-        <v>120</v>
-      </c>
-      <c r="E10" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="285" x14ac:dyDescent="0.45">
-      <c r="A11" s="6">
-        <v>11</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="6">
-        <v>450</v>
-      </c>
-      <c r="E11" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="285" x14ac:dyDescent="0.45">
-      <c r="A12" s="6">
-        <v>12</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="6">
-        <v>370</v>
-      </c>
-      <c r="E12" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="285" x14ac:dyDescent="0.45">
-      <c r="A13" s="6">
-        <v>13</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="6">
-        <v>344</v>
-      </c>
-      <c r="E13" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="285" x14ac:dyDescent="0.45">
-      <c r="A14" s="6">
-        <v>14</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="6">
-        <v>44</v>
-      </c>
-      <c r="E14" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="285" x14ac:dyDescent="0.45">
-      <c r="A15" s="6">
-        <v>15</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="6">
-        <v>777</v>
-      </c>
-      <c r="E15" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="299.25" x14ac:dyDescent="0.45">
-      <c r="A16" s="6">
-        <v>16</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="6">
-        <v>120</v>
-      </c>
-      <c r="E16" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="285" x14ac:dyDescent="0.45">
-      <c r="A17" s="6">
-        <v>17</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="6">
-        <v>500</v>
-      </c>
-      <c r="E17" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="299.25" x14ac:dyDescent="0.45">
-      <c r="A18" s="6">
-        <v>18</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="6">
-        <v>80</v>
-      </c>
-      <c r="E18" s="6">
-        <v>1</v>
-      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/control funciones menucompleto.xlsx
+++ b/control funciones menucompleto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jade_\Desktop\Delivery app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD6C97C-D1EA-4DEA-BA32-7E30DA06DB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50BAC07-8336-4E66-9413-E9744F5815DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{B50175D1-3EDE-4D77-9654-8E7F3090148C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="36">
   <si>
     <t xml:space="preserve">AGREGAR TARJETA </t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>escritorio pattern</t>
+  </si>
+  <si>
+    <t>si se borrase un tipo de plato, y hubiese platos cargados, el id del plato borrado quedaria en la lista de platos con ese idTipoPlato borrado, entonces hay que resolver como arreglar esto</t>
   </si>
 </sst>
 </file>
@@ -371,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -386,66 +389,62 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -827,58 +826,58 @@
       <c r="AI2" s="1"/>
     </row>
     <row r="3" spans="1:35" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="25"/>
+      <c r="E3" s="17"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="25"/>
-      <c r="J3" s="24" t="s">
+      <c r="H3" s="17"/>
+      <c r="J3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="25"/>
+      <c r="K3" s="17"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="25"/>
+      <c r="N3" s="17"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="24" t="s">
+      <c r="P3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="25"/>
-      <c r="S3" s="24" t="s">
+      <c r="Q3" s="17"/>
+      <c r="S3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="T3" s="25"/>
+      <c r="T3" s="17"/>
       <c r="U3" s="2"/>
-      <c r="V3" s="24" t="s">
+      <c r="V3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="W3" s="25"/>
+      <c r="W3" s="17"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="24" t="s">
+      <c r="Y3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="Z3" s="25"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="17"/>
+      <c r="Z3" s="17"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="21"/>
       <c r="AD3" s="2"/>
-      <c r="AE3" s="24" t="s">
+      <c r="AE3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AF3" s="25"/>
+      <c r="AF3" s="17"/>
       <c r="AG3" s="2"/>
-      <c r="AH3" s="16"/>
-      <c r="AI3" s="17"/>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="21"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="B4" s="1"/>
@@ -895,50 +894,50 @@
       <c r="AI4" s="1"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="D5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="G5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="11"/>
-      <c r="J5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="11"/>
-      <c r="M5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="N5" s="11"/>
-      <c r="P5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="11"/>
-      <c r="S5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="T5" s="11"/>
-      <c r="V5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="W5" s="11"/>
-      <c r="Y5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z5" s="11"/>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="17"/>
-      <c r="AE5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF5" s="11"/>
-      <c r="AH5" s="16"/>
-      <c r="AI5" s="17"/>
+      <c r="A5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="D5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="G5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="19"/>
+      <c r="J5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="19"/>
+      <c r="M5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="19"/>
+      <c r="P5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="19"/>
+      <c r="S5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="T5" s="19"/>
+      <c r="V5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="W5" s="19"/>
+      <c r="Y5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z5" s="19"/>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="21"/>
+      <c r="AE5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF5" s="19"/>
+      <c r="AH5" s="20"/>
+      <c r="AI5" s="21"/>
     </row>
     <row r="8" spans="1:35" ht="8.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
@@ -1023,51 +1022,51 @@
       <c r="AI11" s="1"/>
     </row>
     <row r="12" spans="1:35" ht="52.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="19"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="2"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23"/>
-      <c r="J12" s="18" t="s">
+      <c r="F12" s="24"/>
+      <c r="G12" s="25"/>
+      <c r="J12" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="19"/>
+      <c r="K12" s="23"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="18" t="s">
+      <c r="M12" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="N12" s="19"/>
+      <c r="N12" s="23"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="18" t="s">
+      <c r="P12" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="Q12" s="19"/>
-      <c r="S12" s="18" t="s">
+      <c r="Q12" s="23"/>
+      <c r="S12" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="T12" s="19"/>
+      <c r="T12" s="23"/>
       <c r="U12" s="2"/>
-      <c r="V12" s="18" t="s">
+      <c r="V12" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="W12" s="19"/>
+      <c r="W12" s="23"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="18" t="s">
+      <c r="Y12" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="Z12" s="19"/>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="17"/>
+      <c r="Z12" s="23"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="21"/>
       <c r="AD12" s="2"/>
-      <c r="AE12" s="18" t="s">
+      <c r="AE12" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="AF12" s="19"/>
+      <c r="AF12" s="23"/>
       <c r="AG12" s="2"/>
-      <c r="AH12" s="16"/>
-      <c r="AI12" s="17"/>
+      <c r="AH12" s="20"/>
+      <c r="AI12" s="21"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.45">
       <c r="C13" s="1"/>
@@ -1083,44 +1082,44 @@
       <c r="AI13" s="1"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="B14" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="17"/>
-      <c r="J14" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="11"/>
-      <c r="M14" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="11"/>
-      <c r="P14" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="11"/>
-      <c r="S14" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="T14" s="11"/>
-      <c r="V14" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="W14" s="11"/>
-      <c r="Y14" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z14" s="11"/>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="17"/>
-      <c r="AE14" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF14" s="11"/>
-      <c r="AH14" s="16"/>
-      <c r="AI14" s="17"/>
+      <c r="B14" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21"/>
+      <c r="J14" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="19"/>
+      <c r="M14" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="19"/>
+      <c r="P14" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="19"/>
+      <c r="S14" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="19"/>
+      <c r="V14" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="19"/>
+      <c r="Y14" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="19"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="21"/>
+      <c r="AE14" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF14" s="19"/>
+      <c r="AH14" s="20"/>
+      <c r="AI14" s="21"/>
     </row>
     <row r="17" spans="1:35" ht="8.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
@@ -1164,8 +1163,8 @@
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="21"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="27"/>
       <c r="K19" s="13" t="s">
         <v>5</v>
       </c>
@@ -1198,26 +1197,26 @@
       <c r="AF20" s="1"/>
     </row>
     <row r="21" spans="1:35" ht="48" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="19"/>
+      <c r="E21" s="23"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="M21" s="18" t="s">
+      <c r="M21" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="N21" s="19"/>
+      <c r="N21" s="23"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
-      <c r="V21" s="18" t="s">
+      <c r="V21" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="W21" s="19"/>
+      <c r="W21" s="23"/>
       <c r="X21" s="6"/>
       <c r="Y21" s="6"/>
-      <c r="AE21" s="16"/>
-      <c r="AF21" s="17"/>
+      <c r="AE21" s="20"/>
+      <c r="AF21" s="21"/>
       <c r="AG21" s="6"/>
       <c r="AH21" s="6"/>
     </row>
@@ -1228,79 +1227,43 @@
       <c r="AF22" s="1"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="D23" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="M23" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="N23" s="11"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="V23" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="W23" s="11"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
-      <c r="AE23" s="16"/>
-      <c r="AF23" s="17"/>
-      <c r="AG23" s="12"/>
-      <c r="AH23" s="12"/>
+      <c r="D23" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="M23" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="N23" s="19"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="V23" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="W23" s="19"/>
+      <c r="X23" s="28"/>
+      <c r="Y23" s="28"/>
+      <c r="AE23" s="20"/>
+      <c r="AF23" s="21"/>
+      <c r="AG23" s="28"/>
+      <c r="AH23" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K1:P1"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="T1:Y1"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AC1:AH1"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="K10:P10"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="T10:Y10"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="AC10:AH10"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="AC19:AH19"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="K19:P19"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
     <mergeCell ref="AB14:AC14"/>
     <mergeCell ref="AE14:AF14"/>
     <mergeCell ref="AH14:AI14"/>
@@ -1311,18 +1274,54 @@
     <mergeCell ref="S14:T14"/>
     <mergeCell ref="V14:W14"/>
     <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="K19:P19"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="AC19:AH19"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="T10:Y10"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="AC10:AH10"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="AC1:AH1"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="T1:Y1"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1331,10 +1330,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB88519-6E38-4716-808F-E8354FD906F4}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1401,7 +1400,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
+      <c r="B11" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1414,6 +1413,11 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B13" s="8" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B14" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1437,16 +1441,16 @@
     <col min="3" max="3" width="39.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="26"/>
-      <c r="B1" s="27" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="10"/>
+      <c r="B1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="6"/>
@@ -1483,10 +1487,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="6"/>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="12" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="6"/>
@@ -1495,7 +1499,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="28"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
@@ -1544,7 +1548,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="28"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
